--- a/CRM.xlsx
+++ b/CRM.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CRM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>CRM</t>
   </si>
@@ -151,61 +151,34 @@
     <t>Earning Expected Surprise</t>
   </si>
   <si>
+    <t>Zacks Rank</t>
+  </si>
+  <si>
+    <t>Yahoo Rank</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>4.75B</t>
-  </si>
-  <si>
-    <t>4.74B</t>
-  </si>
-  <si>
-    <t>4.79B</t>
-  </si>
-  <si>
-    <t>3.6B</t>
-  </si>
-  <si>
-    <t>31.90%</t>
-  </si>
-  <si>
-    <t>27.30%</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>-20.00%</t>
-  </si>
-  <si>
-    <t>-23.70%</t>
-  </si>
-  <si>
-    <t>5.50%</t>
-  </si>
-  <si>
-    <t>6.90%</t>
-  </si>
-  <si>
-    <t>18.55%</t>
-  </si>
-  <si>
-    <t>45.87%</t>
-  </si>
-  <si>
-    <t>-21.43%</t>
+    <t>-20.00</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>12.0</t>
+  </si>
+  <si>
     <t>11.0</t>
-  </si>
-  <si>
-    <t>0.00%</t>
   </si>
 </sst>
 </file>
@@ -563,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -596,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0.55</v>
@@ -607,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0.5600000000000001</v>
@@ -618,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0.55</v>
@@ -629,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -643,7 +616,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -653,8 +626,8 @@
       <c r="B8">
         <v>0.54</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
+      <c r="C8">
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -664,8 +637,8 @@
       <c r="B9">
         <v>0.67</v>
       </c>
-      <c r="C9" t="s">
-        <v>45</v>
+      <c r="C9">
+        <v>0.58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -675,8 +648,8 @@
       <c r="B10">
         <v>0.7</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
+      <c r="C10">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -684,26 +657,32 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>4.75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -713,79 +692,85 @@
       <c r="B14">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
+      <c r="C14">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
+      <c r="B15">
+        <v>4.75</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
+      <c r="B16">
+        <v>4.74</v>
+      </c>
+      <c r="C16">
+        <v>4.72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
+      <c r="B17">
+        <v>4.79</v>
+      </c>
+      <c r="C17">
+        <v>4.78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
+      <c r="B18">
+        <v>3.6</v>
+      </c>
+      <c r="C18">
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="B19">
+        <v>31.9</v>
+      </c>
+      <c r="C19">
+        <v>31.83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
+        <v>0.66</v>
+      </c>
+      <c r="C21">
+        <v>0.66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -793,10 +778,10 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>0.7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
+        <v>0.75</v>
+      </c>
+      <c r="C22">
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -804,27 +789,33 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
+        <v>0.09</v>
+      </c>
+      <c r="C23">
+        <v>0.09</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
+      <c r="B24">
+        <v>13.6</v>
+      </c>
+      <c r="C24">
+        <v>13.64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
@@ -833,8 +824,8 @@
       <c r="B26">
         <v>0.5600000000000001</v>
       </c>
-      <c r="C26" t="s">
-        <v>45</v>
+      <c r="C26">
+        <v>0.55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -844,8 +835,8 @@
       <c r="B27">
         <v>0.5600000000000001</v>
       </c>
-      <c r="C27" t="s">
-        <v>45</v>
+      <c r="C27">
+        <v>0.55</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -855,8 +846,8 @@
       <c r="B28">
         <v>0.61</v>
       </c>
-      <c r="C28" t="s">
-        <v>45</v>
+      <c r="C28">
+        <v>0.61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -866,8 +857,8 @@
       <c r="B29">
         <v>0.61</v>
       </c>
-      <c r="C29" t="s">
-        <v>45</v>
+      <c r="C29">
+        <v>0.59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -877,24 +868,30 @@
       <c r="B30">
         <v>0.61</v>
       </c>
-      <c r="C30" t="s">
-        <v>45</v>
+      <c r="C30">
+        <v>0.59</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -902,10 +899,10 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -913,10 +910,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -924,10 +921,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -935,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
         <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -946,94 +943,106 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>-21.43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>45</v>
+      <c r="B40">
+        <v>-23.7</v>
+      </c>
+      <c r="C40">
+        <v>-25.81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
+      <c r="B41">
+        <v>5.5</v>
+      </c>
+      <c r="C41">
+        <v>5.09</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
+      <c r="B42">
+        <v>6.9</v>
+      </c>
+      <c r="C42">
+        <v>7.26</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
-        <v>58</v>
+      <c r="B43">
+        <v>18.55</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
-        <v>59</v>
+      <c r="B44">
+        <v>45.87</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>0.55</v>
@@ -1044,7 +1053,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>0.55</v>
@@ -1055,10 +1064,32 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="C48" t="s">
-        <v>63</v>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>1.7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CRM.xlsx
+++ b/CRM.xlsx
@@ -433,7 +433,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Earning Ectimate</t>
+          <t>Earning Estimate</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -586,10 +586,8 @@
           <t>No of Analyst / Estimates</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
+      <c r="B6" s="3" t="n">
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>15</v>
@@ -772,7 +770,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>-21.43%</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -1381,7 +1379,7 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>0.61</v>
@@ -1529,10 +1527,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C32" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="3" t="n"/>
@@ -1566,10 +1562,8 @@
       <c r="B33" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="3" t="n"/>
@@ -1605,10 +1599,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="3" t="n"/>
@@ -1644,10 +1636,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D35" s="3" t="n"/>
       <c r="E35" s="3" t="n"/>
@@ -1683,10 +1673,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
+      <c r="C36" s="3" t="n">
+        <v>12</v>
       </c>
       <c r="D36" s="3" t="n"/>
       <c r="E36" s="3" t="n"/>
@@ -1722,10 +1710,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
+      <c r="C37" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="D37" s="3" t="n"/>
       <c r="E37" s="3" t="n"/>
@@ -1795,10 +1781,8 @@
           <t>Current Qtr.</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>-20.00</t>
-        </is>
+      <c r="B39" s="3" t="n">
+        <v>-20</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>-21.43</v>
